--- a/trunk/MARMITESutilities/MM_XLSstuff/POND_EvaporationCorrection.xlsx
+++ b/trunk/MARMITESutilities/MM_XLSstuff/POND_EvaporationCorrection.xlsx
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,8 +1206,8 @@
         <v>22.536955674275141</v>
       </c>
       <c r="H8" s="2">
-        <f>C8*D8*B8*$K$3*B8^2/100^2/10</f>
-        <v>22.536955674275141</v>
+        <f>C8*D8*$K$3*B8^3/100^2/10</f>
+        <v>22.536955674275138</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>2.2536955674275137E-2</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ref="H9:H10" si="3">C9*D9*B9*$K$3*B9^2/100^2/10</f>
+        <f t="shared" ref="H9:H10" si="3">C9*D9*$K$3*B9^3/100^2/10</f>
         <v>2.2536955674275137E-2</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>2.8171194592843927</v>
+        <v>2.8171194592843922</v>
       </c>
     </row>
   </sheetData>
